--- a/2018.03 Mob Asn 2 Declan Crowley.xlsx
+++ b/2018.03 Mob Asn 2 Declan Crowley.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Asn" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="71">
   <si>
     <t xml:space="preserve">Mobile Assigment 2 "Own Idea" v1.0</t>
   </si>
@@ -131,7 +131,7 @@
     <t xml:space="preserve">Screen</t>
   </si>
   <si>
-    <t xml:space="preserve">EXAMPLE: Screen shot of the functionality working</t>
+    <t xml:space="preserve">Application is not working as hoped. The idea was to pull usable temperature data from a weather forecast or similar website but I wasn’t able to parse the data. An rss feed is pulled fromt the rte website but I dont do anything with that. The intention then was to use the seek, gesture, paint objects to manipulate a simple object like a circle. Changing size and color on the screen to represent different values. Those features have been implemented but I don’t have the original data.</t>
   </si>
   <si>
     <t xml:space="preserve">Code 1</t>
@@ -158,16 +158,3534 @@
     <t xml:space="preserve">EXAMPLE: Screen shot of the functionality working (use widows snipping tool or equivalent on your OS)</t>
   </si>
   <si>
-    <t xml:space="preserve">Example Code screen shot 1 (use widows snipping tool or equivalent on your OS)</t>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">tgglBtn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (ToggleButton) findViewById(R.id.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">tgglBtn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+tgglBtn.setChecked(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">setTgglBtnColor(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">boolean </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">b){
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">tgglBtn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.isChecked()){
+        Log.</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"BA.tggl red : " </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">+ R.color.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">coolRed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">R.color.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">coolRed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+    }</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">else </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{
+        Log.</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"BA.tggl green : " </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">+ R.color.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">coolGreen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">R.color.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">green</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ToggleButton
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">android</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:id=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"@+id/tgglBtn"
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">android</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:layout_width=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"140dp"
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">android</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:layout_height=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"wrap_content"
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">android</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:layout_below=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"@id/simpleSeekBar"
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">android</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:textOn=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"red"
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">android</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:textOff=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"green"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Add more app or code screen shots if you need to.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ImageButton
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">android</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:id=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"@+id/alertBtn"
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">android</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:layout_width=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"128dp"
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">android</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:layout_height=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"wrap_content"
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">android</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:gravity=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"center"
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">android</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:layout_below=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"@+id/text"
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">android</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:layout_marginTop=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"2dp"
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">android</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:layout_marginLeft=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"30dp"
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">android</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:onClick=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"onClickAlertBtn"
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">android</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:src=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"@drawable/alert_btn"
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">android</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:background=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"@android:color/transparent"  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">onClickAlertBtn(View view) {
+    android.util.Log.</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"BA.onClickAlertBtn"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+    ListDialog listDialog = ListDialog.</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">newInstance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">();
+    listDialog.show(getFragmentManager(), </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"dialog"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ListDialog </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">extends </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">DialogFragment {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">String </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">TAG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"test"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public static </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ListDialog newInstance() {
+        ListDialog listDialog = </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ListDialog();
+        Bundle args = </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Bundle();
+        listDialog.setArguments(args);
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">listDialog;
+    }
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF808000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">@Override
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Dialog onCreateDialog(Bundle savedInstanceState) {
+        Log.</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"WRF.onCreateDialog()"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+        AlertDialog.Builder builder = </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">AlertDialog.Builder(getActivity());
+        builder.setTitle(R.string.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">listtitle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+        LayoutInflater li = LayoutInflater.</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(getActivity());
+        View view = li.inflate(R.layout.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">lis_dialog_layout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+        String [] arrayWork = getResources().getStringArray(R.array.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+        ListArrayAdater adapter = </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ListArrayAdater(getActivity(), arrayWork);
+        ListView listView=(ListView) view.findViewById(R.id.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">listid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+        listView.setAdapter(adapter);
+        listView.setOnItemClickListener(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">AdapterView.OnItemClickListener() {
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF808000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">@Override
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">onItemClick(AdapterView&lt;?&gt; parent, View view,
+                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">position, </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">long </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">id) {
+                Log.</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"WRF.onCreateDialog() position:id " </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">+ position + </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"," </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">+ id);
+                String [] arrayWork = getResources().getStringArray(R.array.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+                </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">mListener</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.listDialogSelection(ListDialog.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, arrayWork[position]);
+            }
+        });
+        builder.setView(view);
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">builder.create();
+    }
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public interface </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ListDialogListener {
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">listDialogSelection(DialogFragment dialog, String work);
+    }
+    ListDialog.ListDialogListener </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">mListener</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF808000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">@Override
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">onAttach(Activity activity) {
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.onAttach(activity);
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">// Verify that the host activity implements the callback interface
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">try </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">// Instantiate the NoticeDialogListener so we can send events to the host
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">mListener </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= (ListDialog.ListDialogListener) activity;
+        } </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">catch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(ClassCastException e) {
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">// The activity doesn't implement the interface, throw exception
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">throw new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ClassCastException(activity.toString()
+                    + </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">" must implement NoticeDialogListener"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+        }
+    }
+}
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ListArrayAdater </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">extends </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ArrayAdapter&lt;String&gt; {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">private final </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Context </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">private </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">String [] </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">items</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ListArrayAdater(Context context, String [] stringArray) {
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(context, R.layout.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">text_cutom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, stringArray);
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">context </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= context;
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">items </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= stringArray;
+    }
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF808000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">@Override
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">View getView(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">position, View convertView, ViewGroup parent) {
+        LayoutInflater inflater = (LayoutInflater) </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.getSystemService(Context.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">LAYOUT_INFLATER_SERVICE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+        View view = inflater.inflate(R.layout.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">text_cutom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, parent, </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+        TextView textView1 = (TextView) view.findViewById(R.id.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">customtextview</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+        textView1.setText(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">items</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">[position]);
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">view;
+    }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">seekBar </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= (SeekBar) findViewById(R.id.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">simpleSeekBar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">seekBar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.setOnSeekBarChangeListener(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">SeekBar.OnSeekBarChangeListener() {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">progressChangedValue </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">onProgressChanged(SeekBar seekBar, </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">progress, </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">boolean </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">fromUser) {
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">progressChangedValue </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= progress;
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">size </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">progressChangedValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+    }
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">onStartTrackingTouch(SeekBar seekBar) {
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">// </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0073BF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">TODO Auto-generated method stub
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">}
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">onStopTrackingTouch(SeekBar seekBar) {
+        Toast.</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">makeText</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(BaseActivity.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"Seek bar progress is :" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">progressChangedValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">,
+                Toast.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">LENGTH_SHORT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">).show();
+    }
+});</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">SeekBar
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">android</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:id=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"@+id/simpleSeekBar"
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">android</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:layout_width=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"200dp"
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">android</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:layout_height=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"wrap_content"
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">android</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:max=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"100"
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">android</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:layout_below=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"@+id/bttnLine"
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">android</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:layout_marginTop=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"2dp"
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">android</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:layout_marginLeft=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"30dp"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">example code screen shot 3 (if needed)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">private </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">GestureDetector </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">gestureDetector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF808000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">@Override
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">protected void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">onCreate(Bundle savedInstanceState) {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.onCreate(savedInstanceState);
+    LayoutInflater inflater = getLayoutInflater();
+    setContentView(R.layout.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">activity_base</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">gestureDetector </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">GestureDetector(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">GestureDetector.SimpleOnGestureListener()
+    {
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF808000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">@Override
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public boolean </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">onFling(MotionEvent e1, MotionEvent e2, </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">float </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">f1, </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">float </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">f2){
+            Intent intentsa = </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Intent(getApplicationContext(), PaintActivity.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">color = setTgglBtnColor( </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">tgglBtn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.isChecked() );
+            intentsa.putExtra(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"color"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, color);
+            intentsa.putExtra(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"size"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+            startActivity(intentsa);
+            finish();
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+        }
+    });</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">code screen shot 2 (if needed)</t>
   </si>
   <si>
-    <t xml:space="preserve">example code screen shot 3 (if needed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add more app or code screen shots if you need to.</t>
+    <t xml:space="preserve">Example Code screen shot 1 (use widows snipping tool or equivalent on your OS)</t>
   </si>
   <si>
     <t xml:space="preserve">Documentation</t>
@@ -219,7 +3737,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -303,6 +3821,87 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="7.5"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="7.5"/>
+      <color rgb="FF660E7A"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="7.5"/>
+      <color rgb="FF000080"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="7.5"/>
+      <color rgb="FF660E7A"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="7.5"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="7.5"/>
+      <color rgb="FF008000"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="7.5"/>
+      <color rgb="FF0000FF"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color rgb="FF808000"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="7.5"/>
+      <color rgb="FF808080"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color rgb="FF0000FF"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="7.5"/>
+      <color rgb="FF0073BF"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -349,7 +3948,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -422,6 +4021,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -447,14 +4058,14 @@
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF0070C0"/>
+      <rgbColor rgb="FF0073BF"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FF660E7A"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0563C1"/>
       <rgbColor rgb="FFCCCCFF"/>
@@ -464,7 +4075,7 @@
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0070C0"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
@@ -500,19 +4111,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>392400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>201600</xdr:rowOff>
+      <xdr:colOff>141840</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>323280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1732680</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1280160</xdr:rowOff>
+      <xdr:colOff>4496760</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>799200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Image 1" descr=""/>
+        <xdr:cNvPr id="0" name="Image 2" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -521,45 +4132,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="973080" y="849240"/>
-          <a:ext cx="1340280" cy="1078560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>141840</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>323280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4497120</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>799560</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Image 2" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="722520" y="3909600"/>
-          <a:ext cx="4355280" cy="476280"/>
+          <a:off x="713160" y="3909600"/>
+          <a:ext cx="4354920" cy="475920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -580,23 +4154,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5859720</xdr:colOff>
+      <xdr:colOff>5859360</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1776240</xdr:rowOff>
+      <xdr:rowOff>1775880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 3" descr=""/>
+        <xdr:cNvPr id="1" name="Image 3" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="772920" y="5653800"/>
-          <a:ext cx="5667480" cy="1527840"/>
+          <a:off x="763560" y="5653800"/>
+          <a:ext cx="5667120" cy="1527480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -616,19 +4190,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1553400</xdr:colOff>
+      <xdr:colOff>1383120</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>550440</xdr:rowOff>
+      <xdr:rowOff>2842200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4476240</xdr:colOff>
+      <xdr:colOff>5397480</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1198800</xdr:rowOff>
+      <xdr:rowOff>4140360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 4" descr=""/>
+        <xdr:cNvPr id="2" name="Image 7" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -637,8 +4211,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2134080" y="1359720"/>
-          <a:ext cx="2922840" cy="648360"/>
+          <a:off x="1954440" y="3651480"/>
+          <a:ext cx="4014360" cy="1298160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -653,19 +4227,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1242720</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>208800</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5257440</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1507320</xdr:rowOff>
+      <xdr:colOff>6308640</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3810240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 5" descr=""/>
+        <xdr:cNvPr id="3" name="Image 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -674,82 +4248,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1823400" y="5559840"/>
-          <a:ext cx="4014720" cy="1298520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1022400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>2122920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5037120</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1289520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 6" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1603080" y="7473960"/>
-          <a:ext cx="4014720" cy="1298160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1383120</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5397840</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1201680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Image 7" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1963800" y="3651480"/>
-          <a:ext cx="4014720" cy="1298520"/>
+          <a:off x="571320" y="809280"/>
+          <a:ext cx="6308640" cy="3810240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -775,13 +4275,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4476240</xdr:colOff>
+      <xdr:colOff>4475880</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1340280</xdr:rowOff>
+      <xdr:rowOff>1339920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Image 4" descr=""/>
+        <xdr:cNvPr id="4" name="Image 4" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -790,82 +4290,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2134080" y="1501200"/>
-          <a:ext cx="2922840" cy="648360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1242720</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>350280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5257440</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1648800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Image 5" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1823400" y="5701320"/>
-          <a:ext cx="4014720" cy="1298520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1022400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5037120</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1428840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Image 6" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1603080" y="7615440"/>
-          <a:ext cx="4014720" cy="1296000"/>
+          <a:off x="2124720" y="1501200"/>
+          <a:ext cx="2922480" cy="648000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -881,28 +4307,65 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1383120</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2983680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5397840</xdr:colOff>
+      <xdr:colOff>5397480</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1343160</xdr:rowOff>
+      <xdr:rowOff>224640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Image 7" descr=""/>
+        <xdr:cNvPr id="5" name="Image 7" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1963800" y="3792960"/>
-          <a:ext cx="4014720" cy="1298520"/>
+          <a:off x="1954440" y="3792960"/>
+          <a:ext cx="4014360" cy="1298160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6308640</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3809880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Image 8" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571320" y="809280"/>
+          <a:ext cx="6308640" cy="3809880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -928,13 +4391,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4476240</xdr:colOff>
+      <xdr:colOff>4475880</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1198800</xdr:rowOff>
+      <xdr:rowOff>1198440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Image 4" descr=""/>
+        <xdr:cNvPr id="7" name="Image 4" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -943,82 +4406,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2134080" y="1359720"/>
-          <a:ext cx="2922840" cy="648360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1242720</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>208800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5257440</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1507320</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Image 5" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1823400" y="5559840"/>
-          <a:ext cx="4014720" cy="1298520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1022400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>2122920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5037120</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1289520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Image 6" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1603080" y="7473960"/>
-          <a:ext cx="4014720" cy="1298160"/>
+          <a:off x="2124720" y="1359720"/>
+          <a:ext cx="2922480" cy="648000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1034,28 +4423,65 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1383120</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2842200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5397840</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1201680</xdr:rowOff>
+      <xdr:colOff>5397480</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>140400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Image 7" descr=""/>
+        <xdr:cNvPr id="8" name="Image 7" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1963800" y="3651480"/>
-          <a:ext cx="4014720" cy="1298520"/>
+          <a:off x="1954440" y="3651480"/>
+          <a:ext cx="4014360" cy="1298160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6308640</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3809880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Image 9" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571320" y="809280"/>
+          <a:ext cx="6308640" cy="3809880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1075,19 +4501,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1553400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>550440</xdr:rowOff>
+      <xdr:colOff>1242720</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>703080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4476240</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1198800</xdr:rowOff>
+      <xdr:colOff>5257080</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>398520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Image 4" descr=""/>
+        <xdr:cNvPr id="10" name="Image 5" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1096,45 +4522,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2134080" y="1521720"/>
-          <a:ext cx="2922840" cy="648360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1242720</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>208800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5257440</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1507320</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Image 5" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1823400" y="5721840"/>
-          <a:ext cx="4014720" cy="1298520"/>
+          <a:off x="1814040" y="5721840"/>
+          <a:ext cx="4014360" cy="1298160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1151,27 +4540,27 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1022400</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>2122920</xdr:rowOff>
+      <xdr:rowOff>1014480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5037120</xdr:colOff>
+      <xdr:colOff>5036760</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1289520</xdr:rowOff>
+      <xdr:rowOff>180360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Image 6" descr=""/>
+        <xdr:cNvPr id="11" name="Image 6" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1603080" y="7635960"/>
-          <a:ext cx="4014720" cy="1298160"/>
+          <a:off x="1593720" y="7635960"/>
+          <a:ext cx="4014360" cy="1297800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1187,18 +4576,55 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1383120</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2842200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5397840</xdr:colOff>
+      <xdr:colOff>5397480</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1201680</xdr:rowOff>
+      <xdr:rowOff>92880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Image 7" descr=""/>
+        <xdr:cNvPr id="12" name="Image 7" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1954440" y="3813480"/>
+          <a:ext cx="4014360" cy="1298160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6308640</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3809880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Image 10" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1207,8 +4633,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1963800" y="3813480"/>
-          <a:ext cx="4014720" cy="1298520"/>
+          <a:off x="571320" y="971280"/>
+          <a:ext cx="6308640" cy="3809880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1234,13 +4660,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4476240</xdr:colOff>
+      <xdr:colOff>4475880</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1502280</xdr:rowOff>
+      <xdr:rowOff>1501920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Image 4" descr=""/>
+        <xdr:cNvPr id="14" name="Image 4" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1249,8 +4675,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2134080" y="1663200"/>
-          <a:ext cx="2922840" cy="648360"/>
+          <a:off x="2124720" y="1663200"/>
+          <a:ext cx="2922480" cy="648000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1271,13 +4697,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5257440</xdr:colOff>
+      <xdr:colOff>5257080</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1810800</xdr:rowOff>
+      <xdr:rowOff>1810440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Image 5" descr=""/>
+        <xdr:cNvPr id="15" name="Image 5" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1286,8 +4712,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1823400" y="5863320"/>
-          <a:ext cx="4014720" cy="1298520"/>
+          <a:off x="1814040" y="5863320"/>
+          <a:ext cx="4014360" cy="1298160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1308,13 +4734,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5037120</xdr:colOff>
+      <xdr:colOff>5036760</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:rowOff>37800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Image 6" descr=""/>
+        <xdr:cNvPr id="16" name="Image 6" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1323,8 +4749,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1603080" y="7777440"/>
-          <a:ext cx="4014720" cy="1298520"/>
+          <a:off x="1593720" y="7777440"/>
+          <a:ext cx="4014360" cy="1298160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1345,13 +4771,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5397840</xdr:colOff>
+      <xdr:colOff>5397480</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1505160</xdr:rowOff>
+      <xdr:rowOff>1504800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Image 7" descr=""/>
+        <xdr:cNvPr id="17" name="Image 7" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1360,8 +4786,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1963800" y="3954960"/>
-          <a:ext cx="4014720" cy="1298520"/>
+          <a:off x="1954440" y="3954960"/>
+          <a:ext cx="4014360" cy="1298160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1387,13 +4813,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4476240</xdr:colOff>
+      <xdr:colOff>4475880</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1350720</xdr:rowOff>
+      <xdr:rowOff>1350360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Image 4" descr=""/>
+        <xdr:cNvPr id="18" name="Image 4" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1402,8 +4828,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2134080" y="1511640"/>
-          <a:ext cx="2922840" cy="648360"/>
+          <a:off x="2124720" y="1511640"/>
+          <a:ext cx="2922480" cy="648000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1424,13 +4850,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5257440</xdr:colOff>
+      <xdr:colOff>5257080</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1658880</xdr:rowOff>
+      <xdr:rowOff>1658520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Image 5" descr=""/>
+        <xdr:cNvPr id="19" name="Image 5" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1439,8 +4865,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1823400" y="5711400"/>
-          <a:ext cx="4014720" cy="1298520"/>
+          <a:off x="1814040" y="5711400"/>
+          <a:ext cx="4014360" cy="1298160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1461,13 +4887,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5037120</xdr:colOff>
+      <xdr:colOff>5036760</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1441440</xdr:rowOff>
+      <xdr:rowOff>1441080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Image 6" descr=""/>
+        <xdr:cNvPr id="20" name="Image 6" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1476,8 +4902,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1603080" y="7625520"/>
-          <a:ext cx="4014720" cy="1298520"/>
+          <a:off x="1593720" y="7625520"/>
+          <a:ext cx="4014360" cy="1298160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1498,13 +4924,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5397840</xdr:colOff>
+      <xdr:colOff>5397480</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1353240</xdr:rowOff>
+      <xdr:rowOff>1352880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Image 7" descr=""/>
+        <xdr:cNvPr id="21" name="Image 7" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1513,8 +4939,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1963800" y="3803040"/>
-          <a:ext cx="4014720" cy="1298520"/>
+          <a:off x="1954440" y="3803040"/>
+          <a:ext cx="4014360" cy="1298160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1540,13 +4966,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4476240</xdr:colOff>
+      <xdr:colOff>4475880</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1178280</xdr:rowOff>
+      <xdr:rowOff>1177920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Image 4" descr=""/>
+        <xdr:cNvPr id="22" name="Image 4" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1555,8 +4981,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2134080" y="1501200"/>
-          <a:ext cx="2922840" cy="648360"/>
+          <a:off x="2124720" y="1501200"/>
+          <a:ext cx="2922480" cy="648000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1577,13 +5003,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5257440</xdr:colOff>
+      <xdr:colOff>5257080</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1486800</xdr:rowOff>
+      <xdr:rowOff>1486440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Image 5" descr=""/>
+        <xdr:cNvPr id="23" name="Image 5" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1592,8 +5018,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1823400" y="5701320"/>
-          <a:ext cx="4014720" cy="1298520"/>
+          <a:off x="1814040" y="5701320"/>
+          <a:ext cx="4014360" cy="1298160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1614,13 +5040,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5037120</xdr:colOff>
+      <xdr:colOff>5036760</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1267200</xdr:rowOff>
+      <xdr:rowOff>1266840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Image 6" descr=""/>
+        <xdr:cNvPr id="24" name="Image 6" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1629,8 +5055,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1603080" y="7608240"/>
-          <a:ext cx="4014720" cy="1303560"/>
+          <a:off x="1593720" y="7608240"/>
+          <a:ext cx="4014360" cy="1303200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1651,13 +5077,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5397840</xdr:colOff>
+      <xdr:colOff>5397480</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1181160</xdr:rowOff>
+      <xdr:rowOff>1180800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Image 7" descr=""/>
+        <xdr:cNvPr id="25" name="Image 7" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1666,8 +5092,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1963800" y="3792960"/>
-          <a:ext cx="4014720" cy="1298520"/>
+          <a:off x="1954440" y="3792960"/>
+          <a:ext cx="4014360" cy="1298160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1693,13 +5119,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4476240</xdr:colOff>
+      <xdr:colOff>4475880</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1502280</xdr:rowOff>
+      <xdr:rowOff>1501920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Image 4" descr=""/>
+        <xdr:cNvPr id="26" name="Image 4" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1708,8 +5134,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2134080" y="1663200"/>
-          <a:ext cx="2922840" cy="648360"/>
+          <a:off x="2124720" y="1663200"/>
+          <a:ext cx="2922480" cy="648000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1730,13 +5156,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5257440</xdr:colOff>
+      <xdr:colOff>5257080</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1810800</xdr:rowOff>
+      <xdr:rowOff>1810440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Image 5" descr=""/>
+        <xdr:cNvPr id="27" name="Image 5" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1745,8 +5171,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1823400" y="5863320"/>
-          <a:ext cx="4014720" cy="1298520"/>
+          <a:off x="1814040" y="5863320"/>
+          <a:ext cx="4014360" cy="1298160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1767,13 +5193,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5037120</xdr:colOff>
+      <xdr:colOff>5036760</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:rowOff>37800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Image 6" descr=""/>
+        <xdr:cNvPr id="28" name="Image 6" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1782,8 +5208,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1603080" y="7777440"/>
-          <a:ext cx="4014720" cy="1298520"/>
+          <a:off x="1593720" y="7777440"/>
+          <a:ext cx="4014360" cy="1298160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1804,13 +5230,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5397840</xdr:colOff>
+      <xdr:colOff>5397480</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1505160</xdr:rowOff>
+      <xdr:rowOff>1504800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Image 7" descr=""/>
+        <xdr:cNvPr id="29" name="Image 7" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1819,8 +5245,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1963800" y="3954960"/>
-          <a:ext cx="4014720" cy="1298520"/>
+          <a:off x="1954440" y="3954960"/>
+          <a:ext cx="4014360" cy="1298160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1842,16 +5268,16 @@
   </sheetPr>
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="103.40306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="2" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="102.321428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="2" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2186,11 +5612,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="91.1173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="15" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="90.0408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="15" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4287,7 +7713,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="167.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4295,7 +7721,7 @@
         <v>36</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="122.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4303,7 +7729,7 @@
         <v>38</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4347,17 +7773,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="91.1173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="15" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="90.0408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="15" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
       <c r="B1" s="14" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C1" s="0"/>
       <c r="D1" s="0"/>
@@ -8478,7 +11904,7 @@
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0"/>
       <c r="B6" s="17" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C6" s="0"/>
       <c r="D6" s="0"/>
@@ -10531,10 +13957,10 @@
     </row>
     <row r="8" customFormat="false" ht="234.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
@@ -12587,39 +16013,39 @@
     </row>
     <row r="10" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="15" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0"/>
       <c r="C12" s="15" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0"/>
       <c r="C13" s="15" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0"/>
       <c r="C14" s="15" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12642,12 +16068,12 @@
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="16" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="187.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="15" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -12668,16 +16094,16 @@
   </sheetPr>
   <dimension ref="1:11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="91.1173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="30.780612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="15" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="90.0408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="15" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13797,17 +17223,17 @@
   </sheetPr>
   <dimension ref="1:14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="91.1173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="15" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="90.0408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="15" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15887,7 +19313,7 @@
       <c r="B5" s="0"/>
       <c r="C5" s="16"/>
     </row>
-    <row r="6" customFormat="false" ht="218.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="391.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
@@ -15903,7 +19329,7 @@
       <c r="A8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -15911,7 +19337,7 @@
       <c r="A9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="19" t="s">
         <v>43</v>
       </c>
     </row>
@@ -15919,7 +19345,7 @@
       <c r="A10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>44</v>
       </c>
     </row>
@@ -15959,16 +19385,16 @@
   <dimension ref="1:14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="91.1173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="15" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="90.0408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="15" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18048,7 +21474,7 @@
       <c r="B5" s="0"/>
       <c r="C5" s="16"/>
     </row>
-    <row r="6" customFormat="false" ht="218.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="306.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
@@ -18064,28 +21490,33 @@
       <c r="A8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>42</v>
+      <c r="B8" s="18" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="167.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>43</v>
+      <c r="B9" s="19" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="122.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>44</v>
+      <c r="B10" s="19" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0"/>
+    <row r="11" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0"/>
@@ -18119,17 +21550,17 @@
   </sheetPr>
   <dimension ref="1:14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="91.1173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="15" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="90.0408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="15" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20209,7 +23640,7 @@
       <c r="B5" s="0"/>
       <c r="C5" s="16"/>
     </row>
-    <row r="6" customFormat="false" ht="218.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="314.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
@@ -20225,16 +23656,16 @@
       <c r="A8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>42</v>
+      <c r="B8" s="20" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="167.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>43</v>
+      <c r="B9" s="18" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="122.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20242,7 +23673,7 @@
         <v>38</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20280,17 +23711,17 @@
   </sheetPr>
   <dimension ref="1:14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="91.1173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="15" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="90.0408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="15" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22370,7 +25801,7 @@
       <c r="B5" s="0"/>
       <c r="C5" s="16"/>
     </row>
-    <row r="6" customFormat="false" ht="218.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="305.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
@@ -22386,8 +25817,8 @@
       <c r="A8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>42</v>
+      <c r="B8" s="19" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="167.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22395,7 +25826,7 @@
         <v>36</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="122.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22403,7 +25834,7 @@
         <v>38</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22447,11 +25878,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="91.1173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="15" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="90.0408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="15" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24548,7 +27979,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="167.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24556,7 +27987,7 @@
         <v>36</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="122.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24564,7 +27995,7 @@
         <v>38</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24608,11 +28039,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="91.1173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="15" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="90.0408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="15" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26709,7 +30140,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="167.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26717,7 +30148,7 @@
         <v>36</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="122.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26725,7 +30156,7 @@
         <v>38</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26769,11 +30200,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="91.1173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="15" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="90.0408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="15" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28876,7 +32307,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="167.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -28884,7 +32315,7 @@
         <v>36</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="122.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -28892,7 +32323,7 @@
         <v>38</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/2018.03 Mob Asn 2 Declan Crowley.xlsx
+++ b/2018.03 Mob Asn 2 Declan Crowley.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Asn" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="77">
   <si>
     <t xml:space="preserve">Mobile Assigment 2 "Own Idea" v1.0</t>
   </si>
@@ -131,7 +131,8 @@
     <t xml:space="preserve">Screen</t>
   </si>
   <si>
-    <t xml:space="preserve">Application is not working as hoped. The idea was to pull usable temperature data from a weather forecast or similar website but I wasn’t able to parse the data. An rss feed is pulled fromt the rte website but I dont do anything with that. The intention then was to use the seek, gesture, paint objects to manipulate a simple object like a circle. Changing size and color on the screen to represent different values. Those features have been implemented but I don’t have the original data.</t>
+    <t xml:space="preserve">Application is not working as hoped. The idea was to pull usable temperature data from a weather forecast or similar website but I wasn’t able to parse the data. An rss feed is pulled fromt the rte website but I dont do anything with that. It is left just for an advanced feature demo.
+ The seek gesture, paint objects are used to manipulate a simple object like a circle. Changing size with the seek bar and color with toggle button and display object with gesture on the screen to represent different values. </t>
   </si>
   <si>
     <t xml:space="preserve">Code 1</t>
@@ -3679,6 +3680,3714 @@
       <t xml:space="preserve">;
         }
     });</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF808000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">@Override
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public boolean </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">onTouchEvent(MotionEvent event) {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">try </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">gestureDetector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.onTouchEvent(event);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&lt;?</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">xml version=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"1.0" </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">encoding=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"utf-8"</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">?&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">menu </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">xmlns:</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">android</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"http://schemas.android.com/apk/res/android" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&gt;
+    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">item
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">android</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:id=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"@+id/paint"
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">android</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:orderInCategory=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"101"
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">android</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:title=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"@string/paint_activity"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">/&gt;
+    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">item
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">android</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:id=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"@+id/two"
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">android</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:orderInCategory=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"104"
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">android</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:title=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"@string/unused"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">/&gt;
+    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">item
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">android</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:id=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"@+id/three"
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">android</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:orderInCategory=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"105"
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">android</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:title=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"@string/unused"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">/&gt;
+&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">menu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF808000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">@Override
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public boolean </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">onCreateOptionsMenu(Menu menu) {
+    MenuInflater inflater = getMenuInflater();
+    inflater.inflate(R.menu.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">menu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, menu);
+    android.util.Log.</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"BA.onCreateOptionsMenu"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.onCreateOptionsMenu(menu);
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF808000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">@Override
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public boolean </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">onOptionsItemSelected(MenuItem item){
+    android.util.Log.</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"BA.onOptionsSelected"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">switch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(item.getItemId()) {
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">case </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">R.id.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">paint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:
+            Intent intentsa = </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Intent(getApplicationContext(), PaintActivity.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">color = setTgglBtnColor( </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">tgglBtn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.isChecked() );
+            intentsa.putExtra(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"color"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, color);
+            intentsa.putExtra(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"size"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+            startActivity(intentsa);
+            finish();
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">case </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">R.id.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">two</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">//downloadRSSFeed();
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">case </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">R.id.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">three</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:
+            Toast.</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">makeText</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(BaseActivity.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"Unused menu option"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">,
+                    Toast.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">LENGTH_SHORT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">).show();
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+    }
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.onOptionsItemSelected(item);
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">PaintActivity </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">extends </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Activity {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">private </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">String </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">TAG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"test"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">private </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">GestureDetector </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">gestureDetector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF808000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">@Override
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">protected void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">onCreate(Bundle savedInstanceState) {
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.onCreate(savedInstanceState);
+        PaintView paintView = </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">PaintView(getBaseContext());
+        setContentView(paintView);
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">color = getIntent().getExtras().getInt(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"color"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">size = getIntent().getExtras().getInt(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"size"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+        Log.</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"color : " </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">+ color);
+        paintView.setColor(getResources().getColor(color));
+        paintView.setSize(size);
+        Log.</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"size : " </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">+ size);
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">gestureDetector </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">GestureDetector(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">GestureDetector.SimpleOnGestureListener()
+        {
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF808000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">@Override
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public boolean </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">onFling(MotionEvent e1, MotionEvent e2, </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">float </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">f1, </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">float </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">f2){
+                Intent intentsa = </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Intent(getApplicationContext(), BaseActivity.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+                startActivity(intentsa);
+                finish();
+                </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+            }
+        });
+    }
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF808000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">@Override
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public boolean </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">onTouchEvent(MotionEvent event) {
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">try </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">gestureDetector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.onTouchEvent(event);
+        }</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">catch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(Exception e){
+            android.util.Log.</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"BA.oTE " </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">+ e.toString());
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+        }
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">PaintView </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">extends </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">View {
+    String </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">TAG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"test"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">x </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">y </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">r </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+    Paint </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">mPaint </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Paint();
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">private int </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">color </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">PaintView(Context context){
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(context);
+    }
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF808000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">@Override
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">onDraw(Canvas canvas){
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.onDraw(canvas);
+        Log.</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"BV.onDraw c " </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">+ getColor());
+        Log.</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"BV.onDraw r " </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">mPaint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.setColor( getColor() );
+        canvas.drawCircle(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">mPaint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+    }
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">setColor(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">c){</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">color </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= c;}
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">setSize(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">c){</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">r </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= c*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;}
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">getColor(){</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;}
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Thread </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">downLoadService </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Thread(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Runnable() {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">// After call for background.start this run method call
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">run() {
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">try </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{
+            Log.</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"Thread  0 " </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+            URL url = </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">URL(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"https://www.rte.ie/news/rss/news-headlines.xml"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">//http://syndication.indianexpress.com/rss/latest-news.xml");
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">HttpURLConnection con = (HttpURLConnection) url.openConnection();
+            con.setRequestMethod(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"GET"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+            Log.</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"Thread  1 " </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+            con.connect();
+            Log.</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"Thread  2 " </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+            InputStream is = con.getInputStream();
+            Log.</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, isStream(is));
+        } </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">catch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(Throwable t) {
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">// just end the background thread
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Log.</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"Thread  exception " </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">+ t);                       }
+    }
+});
+String isStream(InputStream is){
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(is != </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) {
+        StringBuilder sb = </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">StringBuilder();
+        String line;
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">try </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{
+            BufferedReader reader = </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">BufferedReader(
+                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">InputStreamReader(is, </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"UTF-8"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">while </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">((line = reader.readLine()) != </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) {
+                sb.append(line);</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">// .append("\n");
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">}
+        } </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">catch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(Exception e) {
+            e.printStackTrace();
+        }
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">//Log.d(TAG,"BA.downloadRSSFeed " + sb.toString());
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">sb.toString();
+    }
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"qw"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+}</t>
     </r>
   </si>
   <si>
@@ -3737,7 +7446,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3902,6 +7611,13 @@
       <name val="DejaVu Sans Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="7.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3948,7 +7664,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4017,6 +7733,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4030,6 +7750,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4501,80 +8233,6 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1242720</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>703080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5257080</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>398520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Image 5" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1814040" y="5721840"/>
-          <a:ext cx="4014360" cy="1298160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1022400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1014480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5036760</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>180360</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Image 6" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1593720" y="7635960"/>
-          <a:ext cx="4014360" cy="1297800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>1383120</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>2842200</xdr:rowOff>
@@ -4587,11 +8245,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Image 7" descr=""/>
+        <xdr:cNvPr id="10" name="Image 7" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -4624,17 +8282,54 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Image 10" descr=""/>
+        <xdr:cNvPr id="11" name="Image 10" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="571320" y="971280"/>
           <a:ext cx="6308640" cy="3809880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>370800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3810240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Image 11" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6924600" y="971280"/>
+          <a:ext cx="6308640" cy="3810240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4654,6 +8349,280 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
+      <xdr:colOff>1022400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2426400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5036760</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>115200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Image 6" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1593720" y="7777440"/>
+          <a:ext cx="4014360" cy="1298160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6308640</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>870840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Image 12" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571320" y="809280"/>
+          <a:ext cx="6308640" cy="3809880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1553400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>702360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4475880</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1350360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Image 4" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124720" y="1511640"/>
+          <a:ext cx="2922480" cy="648000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1383120</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2993760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5397480</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>82440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Image 7" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1954440" y="3803040"/>
+          <a:ext cx="4014360" cy="1298160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6308640</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3809880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Image 13" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571320" y="809280"/>
+          <a:ext cx="6308640" cy="3809880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1383120</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2821680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5397480</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>196200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Image 7" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1954440" y="3792960"/>
+          <a:ext cx="4014360" cy="1298160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6308640</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3486240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Image 14" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571320" y="971280"/>
+          <a:ext cx="6308640" cy="3486240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1553400</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>853920</xdr:rowOff>
@@ -4666,7 +8635,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Image 4" descr=""/>
+        <xdr:cNvPr id="20" name="Image 4" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4703,7 +8672,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Image 5" descr=""/>
+        <xdr:cNvPr id="21" name="Image 5" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4740,7 +8709,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Image 6" descr=""/>
+        <xdr:cNvPr id="22" name="Image 6" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4777,466 +8746,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Image 7" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1954440" y="3954960"/>
-          <a:ext cx="4014360" cy="1298160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1553400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>702360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4475880</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1350360</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Image 4" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2124720" y="1511640"/>
-          <a:ext cx="2922480" cy="648000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1242720</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>360360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5257080</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1658520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Image 5" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1814040" y="5711400"/>
-          <a:ext cx="4014360" cy="1298160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1022400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5036760</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1441080</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Image 6" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1593720" y="7625520"/>
-          <a:ext cx="4014360" cy="1298160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1383120</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>54720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5397480</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1352880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Image 7" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1954440" y="3803040"/>
-          <a:ext cx="4014360" cy="1298160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1553400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>529920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4475880</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1177920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Image 4" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2124720" y="1501200"/>
-          <a:ext cx="2922480" cy="648000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1242720</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5257080</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1486440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Image 5" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1814040" y="5701320"/>
-          <a:ext cx="4014360" cy="1298160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1022400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>2095200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5036760</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1266840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Image 6" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1593720" y="7608240"/>
-          <a:ext cx="4014360" cy="1303200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1383120</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5397480</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1180800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Image 7" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1954440" y="3792960"/>
-          <a:ext cx="4014360" cy="1298160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1553400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>853920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4475880</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1501920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Image 4" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2124720" y="1663200"/>
-          <a:ext cx="2922480" cy="648000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1242720</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>512280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5257080</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1810440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Image 5" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1814040" y="5863320"/>
-          <a:ext cx="4014360" cy="1298160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1022400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>294840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5036760</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Image 6" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1593720" y="7777440"/>
-          <a:ext cx="4014360" cy="1298160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1383120</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>206640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5397480</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1504800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Image 7" descr=""/>
+        <xdr:cNvPr id="23" name="Image 7" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -7700,7 +11210,7 @@
       <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -7712,23 +11222,23 @@
       <c r="A8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>56</v>
+      <c r="B8" s="18" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="167.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>55</v>
+      <c r="B9" s="18" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="122.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>53</v>
       </c>
     </row>
@@ -7744,7 +11254,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="18" t="s">
         <v>40</v>
       </c>
     </row>
@@ -7768,7 +11278,7 @@
   <dimension ref="1:22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7783,7 +11293,7 @@
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
       <c r="B1" s="14" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C1" s="0"/>
       <c r="D1" s="0"/>
@@ -11903,8 +15413,8 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0"/>
-      <c r="B6" s="17" t="s">
-        <v>58</v>
+      <c r="B6" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="C6" s="0"/>
       <c r="D6" s="0"/>
@@ -13957,10 +17467,10 @@
     </row>
     <row r="8" customFormat="false" ht="234.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>60</v>
+      <c r="B8" s="18" t="s">
+        <v>66</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
@@ -16013,39 +19523,39 @@
     </row>
     <row r="10" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="15" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0"/>
       <c r="C12" s="15" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0"/>
       <c r="C13" s="15" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0"/>
       <c r="C14" s="15" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16068,12 +19578,12 @@
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="16" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="187.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="15" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -17166,7 +20676,7 @@
       <c r="B5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0"/>
@@ -17176,7 +20686,7 @@
       <c r="A7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>35</v>
       </c>
     </row>
@@ -17184,7 +20694,7 @@
       <c r="A8" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>37</v>
       </c>
     </row>
@@ -17192,7 +20702,7 @@
       <c r="A9" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>39</v>
       </c>
     </row>
@@ -17200,7 +20710,7 @@
       <c r="B10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="18" t="s">
         <v>40</v>
       </c>
     </row>
@@ -19317,7 +22827,7 @@
       <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -19329,7 +22839,7 @@
       <c r="A8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="19" t="s">
         <v>42</v>
       </c>
     </row>
@@ -19337,7 +22847,7 @@
       <c r="A9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="20" t="s">
         <v>43</v>
       </c>
     </row>
@@ -19345,7 +22855,7 @@
       <c r="A10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="19" t="s">
         <v>44</v>
       </c>
     </row>
@@ -19361,7 +22871,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="18" t="s">
         <v>40</v>
       </c>
     </row>
@@ -19384,7 +22894,7 @@
   </sheetPr>
   <dimension ref="1:14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -21478,7 +24988,7 @@
       <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -21490,7 +25000,7 @@
       <c r="A8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="19" t="s">
         <v>46</v>
       </c>
     </row>
@@ -21498,7 +25008,7 @@
       <c r="A9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="20" t="s">
         <v>47</v>
       </c>
     </row>
@@ -21506,7 +25016,7 @@
       <c r="A10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="20" t="s">
         <v>48</v>
       </c>
     </row>
@@ -21514,7 +25024,7 @@
       <c r="A11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="20" t="s">
         <v>50</v>
       </c>
     </row>
@@ -21527,7 +25037,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="18" t="s">
         <v>40</v>
       </c>
     </row>
@@ -21550,7 +25060,7 @@
   </sheetPr>
   <dimension ref="1:14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -23644,7 +27154,7 @@
       <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -23656,7 +27166,7 @@
       <c r="A8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="21" t="s">
         <v>51</v>
       </c>
     </row>
@@ -23664,7 +27174,7 @@
       <c r="A9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="19" t="s">
         <v>52</v>
       </c>
     </row>
@@ -23672,7 +27182,7 @@
       <c r="A10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>53</v>
       </c>
     </row>
@@ -23688,7 +27198,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="18" t="s">
         <v>40</v>
       </c>
     </row>
@@ -23711,15 +27221,15 @@
   </sheetPr>
   <dimension ref="1:14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="14" width="8.10204081632653"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="15" width="90.0408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="73.0867346938775"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="16" width="11.0714285714286"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="15" width="11.0714285714286"/>
   </cols>
@@ -25805,7 +29315,7 @@
       <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -25817,7 +29327,7 @@
       <c r="A8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>54</v>
       </c>
     </row>
@@ -25825,7 +29335,7 @@
       <c r="A9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="22" t="s">
         <v>55</v>
       </c>
     </row>
@@ -25833,7 +29343,7 @@
       <c r="A10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>53</v>
       </c>
     </row>
@@ -25849,7 +29359,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="18" t="s">
         <v>40</v>
       </c>
     </row>
@@ -25872,8 +29382,8 @@
   </sheetPr>
   <dimension ref="1:14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -27966,9 +31476,7 @@
       <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>41</v>
-      </c>
+      <c r="B6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0"/>
@@ -27978,23 +31486,23 @@
       <c r="A8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="167.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="284.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>55</v>
+      <c r="B9" s="22" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="122.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>53</v>
       </c>
     </row>
@@ -28010,7 +31518,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="18" t="s">
         <v>40</v>
       </c>
     </row>
@@ -28033,8 +31541,8 @@
   </sheetPr>
   <dimension ref="1:14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -30123,11 +33631,11 @@
       <c r="B5" s="0"/>
       <c r="C5" s="16"/>
     </row>
-    <row r="6" customFormat="false" ht="218.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="318.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -30135,27 +33643,27 @@
       <c r="A7" s="0"/>
       <c r="B7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="126.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="317.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>56</v>
+      <c r="B8" s="20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="167.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>55</v>
+      <c r="B9" s="24" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="122.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>53</v>
       </c>
     </row>
@@ -30171,7 +33679,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="18" t="s">
         <v>40</v>
       </c>
     </row>
@@ -30194,8 +33702,8 @@
   </sheetPr>
   <dimension ref="1:14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -32283,14 +35791,14 @@
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0"/>
       <c r="B5" s="0"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
     </row>
-    <row r="6" customFormat="false" ht="218.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="296.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="16" t="n">
@@ -32302,27 +35810,27 @@
       <c r="A7" s="0"/>
       <c r="B7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="126.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="428.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>56</v>
+      <c r="B8" s="19" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="167.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>55</v>
+      <c r="B9" s="18" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="122.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>53</v>
       </c>
     </row>
@@ -32338,7 +35846,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="18" t="s">
         <v>40</v>
       </c>
     </row>
